--- a/notes/CRUD方法.xlsx
+++ b/notes/CRUD方法.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11760" windowHeight="9990"/>
+    <workbookView windowWidth="12630" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="75">
   <si>
     <t>操作类型</t>
   </si>
@@ -34,7 +34,7 @@
     <t>返回对象类型</t>
   </si>
   <si>
-    <t>调用</t>
+    <t>html调用</t>
   </si>
   <si>
     <t>创建</t>
@@ -200,6 +200,21 @@
   </si>
   <si>
     <t>是否在指定区间范围内</t>
+  </si>
+  <si>
+    <t>聚合查询</t>
+  </si>
+  <si>
+    <t>aggregate</t>
+  </si>
+  <si>
+    <t>结果变量名=聚合函数('列')</t>
+  </si>
+  <si>
+    <t>统计整列的数据</t>
+  </si>
+  <si>
+    <t>字典</t>
   </si>
   <si>
     <t>修改</t>
@@ -231,9 +246,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -257,48 +272,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -309,8 +286,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,10 +302,40 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -355,6 +363,14 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -364,30 +380,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,6 +401,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -416,13 +431,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,37 +575,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,127 +611,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,36 +636,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,8 +667,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -705,15 +729,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -730,10 +745,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -742,133 +757,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1225,12 +1240,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1238,7 +1253,7 @@
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="15.25" customWidth="1"/>
     <col min="3" max="3" width="9.75" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="35.75" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
     <col min="7" max="7" width="20.75" customWidth="1"/>
@@ -1745,12 +1760,14 @@
         <v>9</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="6"/>
+        <v>65</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="G21" s="8"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
@@ -1758,19 +1775,19 @@
     </row>
     <row r="22" s="1" customFormat="1" ht="34" customHeight="1" spans="1:10">
       <c r="A22" s="6" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="8"/>
@@ -1783,7 +1800,7 @@
         <v>67</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>9</v>
@@ -1792,7 +1809,7 @@
         <v>38</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="8"/>
@@ -1801,17 +1818,339 @@
       <c r="J23" s="10"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="34" customHeight="1" spans="1:10">
-      <c r="A24" s="9"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="6"/>
+      <c r="A24" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="F24" s="6"/>
       <c r="G24" s="8"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="10"/>
     </row>
+    <row r="25" s="1" customFormat="1" ht="34" customHeight="1" spans="1:10">
+      <c r="A25" s="9"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="10"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="34" customHeight="1" spans="1:10">
+      <c r="A26" s="9"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="10"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="34" customHeight="1" spans="1:10">
+      <c r="A27" s="9"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="10"/>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="34" customHeight="1" spans="1:10">
+      <c r="A28" s="9"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="10"/>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="34" customHeight="1" spans="1:10">
+      <c r="A29" s="9"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="10"/>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="34" customHeight="1" spans="1:10">
+      <c r="A30" s="9"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="10"/>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="34" customHeight="1" spans="1:10">
+      <c r="A31" s="9"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="10"/>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="34" customHeight="1" spans="1:10">
+      <c r="A32" s="9"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="10"/>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="34" customHeight="1" spans="1:10">
+      <c r="A33" s="9"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="10"/>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="34" customHeight="1" spans="1:10">
+      <c r="A34" s="9"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="10"/>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="34" customHeight="1" spans="1:10">
+      <c r="A35" s="9"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="10"/>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="34" customHeight="1" spans="1:10">
+      <c r="A36" s="9"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="10"/>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="34" customHeight="1" spans="1:10">
+      <c r="A37" s="9"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="10"/>
+    </row>
+    <row r="38" s="1" customFormat="1" ht="34" customHeight="1" spans="1:10">
+      <c r="A38" s="9"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="10"/>
+    </row>
+    <row r="39" s="1" customFormat="1" ht="34" customHeight="1" spans="1:10">
+      <c r="A39" s="9"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="10"/>
+    </row>
+    <row r="40" s="1" customFormat="1" ht="34" customHeight="1" spans="1:10">
+      <c r="A40" s="9"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="10"/>
+    </row>
+    <row r="41" s="1" customFormat="1" ht="34" customHeight="1" spans="1:10">
+      <c r="A41" s="9"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="10"/>
+    </row>
+    <row r="42" s="1" customFormat="1" ht="34" customHeight="1" spans="1:10">
+      <c r="A42" s="9"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="10"/>
+    </row>
+    <row r="43" s="1" customFormat="1" ht="34" customHeight="1" spans="1:10">
+      <c r="A43" s="9"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="10"/>
+    </row>
+    <row r="44" s="1" customFormat="1" ht="34" customHeight="1" spans="1:10">
+      <c r="A44" s="9"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="10"/>
+    </row>
+    <row r="45" s="1" customFormat="1" ht="34" customHeight="1" spans="1:10">
+      <c r="A45" s="9"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="10"/>
+    </row>
+    <row r="46" s="1" customFormat="1" ht="34" customHeight="1" spans="1:10">
+      <c r="A46" s="9"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="10"/>
+    </row>
+    <row r="47" s="1" customFormat="1" ht="34" customHeight="1" spans="1:10">
+      <c r="A47" s="9"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="10"/>
+    </row>
+    <row r="48" s="1" customFormat="1" ht="34" customHeight="1" spans="1:10">
+      <c r="A48" s="9"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="10"/>
+    </row>
+    <row r="49" s="1" customFormat="1" ht="34" customHeight="1" spans="1:10">
+      <c r="A49" s="9"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="10"/>
+    </row>
+    <row r="50" s="1" customFormat="1" ht="34" customHeight="1" spans="1:10">
+      <c r="A50" s="9"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="10"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
